--- a/Prediction.xlsx
+++ b/Prediction.xlsx
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>11029.87189665163</v>
+        <v>11000.98651616196</v>
       </c>
       <c r="G2">
-        <v>1029.871896651632</v>
+        <v>1000.986516161962</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10948.70616886851</v>
+        <v>10915.57383292189</v>
       </c>
       <c r="G3">
-        <v>948.7061688685135</v>
+        <v>915.573832921893</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10786.37471330228</v>
+        <v>10744.74846644176</v>
       </c>
       <c r="G4">
-        <v>786.3747133022789</v>
+        <v>744.7484664417552</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10461.71180216981</v>
+        <v>10403.09773348148</v>
       </c>
       <c r="G5">
-        <v>461.7118021698116</v>
+        <v>403.0977334814779</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15840.77062477628</v>
+        <v>15830.61519131694</v>
       </c>
       <c r="G6">
-        <v>840.7706247762835</v>
+        <v>830.6151913169379</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15759.60489699317</v>
+        <v>15745.20250807687</v>
       </c>
       <c r="G7">
-        <v>759.6048969931653</v>
+        <v>745.202508076869</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15597.27344142693</v>
+        <v>15574.37714159673</v>
       </c>
       <c r="G8">
-        <v>597.2734414269307</v>
+        <v>574.3771415967312</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15272.61053029446</v>
+        <v>15232.72640863645</v>
       </c>
       <c r="G9">
-        <v>272.6105302944634</v>
+        <v>232.7264086364539</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20651.66935290094</v>
+        <v>20660.24386647192</v>
       </c>
       <c r="G10">
-        <v>651.6693529009353</v>
+        <v>660.2438664719157</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20570.50362511782</v>
+        <v>20574.83118323185</v>
       </c>
       <c r="G11">
-        <v>570.5036251178208</v>
+        <v>574.8311832318468</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20408.17216955158</v>
+        <v>20404.00581675171</v>
       </c>
       <c r="G12">
-        <v>408.1721695515844</v>
+        <v>404.0058167517091</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -685,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20083.50925841912</v>
+        <v>20062.35508379143</v>
       </c>
       <c r="G13">
-        <v>83.50925841911521</v>
+        <v>62.35508379143357</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30273.46680915024</v>
+        <v>30319.50121678187</v>
       </c>
       <c r="G14">
-        <v>273.466809150239</v>
+        <v>319.5012167818677</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30192.30108136712</v>
+        <v>30234.0885335418</v>
       </c>
       <c r="G15">
-        <v>192.3010813671244</v>
+        <v>234.0885335417988</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30029.96962580089</v>
+        <v>30063.26316706166</v>
       </c>
       <c r="G16">
-        <v>29.96962580088802</v>
+        <v>63.26316706166108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29705.30671466842</v>
+        <v>29721.61243410139</v>
       </c>
       <c r="G17">
-        <v>-294.6932853315811</v>
+        <v>-278.3875658986144</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49517.06172164885</v>
+        <v>49638.01591740177</v>
       </c>
       <c r="G18">
-        <v>-482.9382783511537</v>
+        <v>-361.9840825982319</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49435.89599386574</v>
+        <v>49552.6032341617</v>
       </c>
       <c r="G19">
-        <v>-564.1040061342646</v>
+        <v>-447.3967658382971</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -846,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49273.5645382995</v>
+        <v>49381.77786768157</v>
       </c>
       <c r="G20">
-        <v>-726.435461700501</v>
+        <v>-618.2221323184349</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48948.90162716703</v>
+        <v>49040.12713472129</v>
       </c>
       <c r="G21">
-        <v>-1051.098372832974</v>
+        <v>-959.8728652787104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>10811.89642106745</v>
+        <v>10820.28138053953</v>
       </c>
       <c r="G22">
-        <v>811.8964210674494</v>
+        <v>820.2813805395272</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -915,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>10730.73069328433</v>
+        <v>10734.86869729946</v>
       </c>
       <c r="G23">
-        <v>730.7306932843312</v>
+        <v>734.8686972994583</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -938,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>10568.3992377181</v>
+        <v>10564.04333081932</v>
       </c>
       <c r="G24">
-        <v>568.3992377180966</v>
+        <v>564.0433308193205</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>10243.73632658563</v>
+        <v>10222.39259785904</v>
       </c>
       <c r="G25">
-        <v>243.7363265856293</v>
+        <v>222.3925978590432</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -984,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>15622.7951491921</v>
+        <v>15649.9100556945</v>
       </c>
       <c r="G26">
-        <v>622.7951491921012</v>
+        <v>649.9100556945032</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>15541.62942140898</v>
+        <v>15564.49737245443</v>
       </c>
       <c r="G27">
-        <v>541.629421408983</v>
+        <v>564.4973724544343</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>15379.29796584275</v>
+        <v>15393.6720059743</v>
       </c>
       <c r="G28">
-        <v>379.2979658427485</v>
+        <v>393.6720059742966</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>15054.63505471028</v>
+        <v>15052.02127301402</v>
       </c>
       <c r="G29">
-        <v>54.63505471028111</v>
+        <v>52.02127301401924</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>20433.69387731675</v>
+        <v>20479.53873084948</v>
       </c>
       <c r="G30">
-        <v>433.6938773167531</v>
+        <v>479.5387308494792</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1099,10 +1099,10 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>20352.52814953364</v>
+        <v>20394.12604760941</v>
       </c>
       <c r="G31">
-        <v>352.5281495336385</v>
+        <v>394.1260476094103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1122,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>20190.1966939674</v>
+        <v>20223.30068112927</v>
       </c>
       <c r="G32">
-        <v>190.1966939674021</v>
+        <v>223.3006811292726</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1145,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>19865.53378283493</v>
+        <v>19881.649948169</v>
       </c>
       <c r="G33">
-        <v>-134.4662171650671</v>
+        <v>-118.3500518310029</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1168,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>30055.49133356606</v>
+        <v>30138.79608115943</v>
       </c>
       <c r="G34">
-        <v>55.49133356605671</v>
+        <v>138.7960811594312</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1191,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>29974.32560578294</v>
+        <v>30053.38339791936</v>
       </c>
       <c r="G35">
-        <v>-25.67439421705785</v>
+        <v>53.38339791936232</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1214,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>29811.99415021671</v>
+        <v>29882.55803143922</v>
       </c>
       <c r="G36">
-        <v>-188.0058497832943</v>
+        <v>-117.4419685607754</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1237,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>29487.33123908424</v>
+        <v>29540.90729847895</v>
       </c>
       <c r="G37">
-        <v>-512.6687609157634</v>
+        <v>-459.0927015210509</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1260,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>49299.08624606466</v>
+        <v>49457.31078177934</v>
       </c>
       <c r="G38">
-        <v>-700.9137539353396</v>
+        <v>-542.6892182206648</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1283,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>49217.92051828155</v>
+        <v>49371.89809853927</v>
       </c>
       <c r="G39">
-        <v>-782.0794817184506</v>
+        <v>-628.10190146073</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>49055.58906271531</v>
+        <v>49201.07273205913</v>
       </c>
       <c r="G40">
-        <v>-944.410937284687</v>
+        <v>-798.9272679408678</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1329,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>48730.92615158284</v>
+        <v>48859.42199909886</v>
       </c>
       <c r="G41">
-        <v>-1269.07384841716</v>
+        <v>-1140.578000901143</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>11103.43464352567</v>
+        <v>11058.10662444078</v>
       </c>
       <c r="G42">
-        <v>1103.434643525667</v>
+        <v>1058.106624440781</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>11022.26891574255</v>
+        <v>10972.69394120071</v>
       </c>
       <c r="G43">
-        <v>1022.268915742548</v>
+        <v>972.6939412007123</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>10859.93746017631</v>
+        <v>10801.86857472057</v>
       </c>
       <c r="G44">
-        <v>859.9374601763138</v>
+        <v>801.8685747205745</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>10535.27454904385</v>
+        <v>10460.2178417603</v>
       </c>
       <c r="G45">
-        <v>535.2745490438465</v>
+        <v>460.2178417602972</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>15914.33337165032</v>
+        <v>15887.73529959576</v>
       </c>
       <c r="G46">
-        <v>914.3333716503184</v>
+        <v>887.7352995957572</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15833.1676438672</v>
+        <v>15802.32261635569</v>
       </c>
       <c r="G47">
-        <v>833.1676438672002</v>
+        <v>802.3226163556883</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>15670.83618830097</v>
+        <v>15631.49724987555</v>
       </c>
       <c r="G48">
-        <v>670.8361883009657</v>
+        <v>631.4972498755506</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>15346.1732771685</v>
+        <v>15289.84651691527</v>
       </c>
       <c r="G49">
-        <v>346.1732771684983</v>
+        <v>289.8465169152732</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20725.23209977497</v>
+        <v>20717.36397475073</v>
       </c>
       <c r="G50">
-        <v>725.2320997749703</v>
+        <v>717.3639747507332</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20644.06637199186</v>
+        <v>20631.95129151066</v>
       </c>
       <c r="G51">
-        <v>644.0663719918557</v>
+        <v>631.9512915106643</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20481.73491642562</v>
+        <v>20461.12592503053</v>
       </c>
       <c r="G52">
-        <v>481.7349164256193</v>
+        <v>461.1259250305266</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>20157.07200529315</v>
+        <v>20119.47519207025</v>
       </c>
       <c r="G53">
-        <v>157.0720052931501</v>
+        <v>119.4751920702511</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1628,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>30347.02955602427</v>
+        <v>30376.62132506069</v>
       </c>
       <c r="G54">
-        <v>347.0295560242739</v>
+        <v>376.6213250606852</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>30265.86382824116</v>
+        <v>30291.20864182062</v>
       </c>
       <c r="G55">
-        <v>265.8638282411594</v>
+        <v>291.2086418206163</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>30103.53237267492</v>
+        <v>30120.38327534048</v>
       </c>
       <c r="G56">
-        <v>103.532372674923</v>
+        <v>120.3832753404786</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>29778.86946154245</v>
+        <v>29778.7325423802</v>
       </c>
       <c r="G57">
-        <v>-221.1305384575462</v>
+        <v>-221.2674576197969</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>49590.62446852289</v>
+        <v>49695.13602568059</v>
       </c>
       <c r="G58">
-        <v>-409.3755314771115</v>
+        <v>-304.8639743194144</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>49509.45874073976</v>
+        <v>49609.72334244052</v>
       </c>
       <c r="G59">
-        <v>-490.541259260237</v>
+        <v>-390.2766575594796</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>49347.12728517354</v>
+        <v>49438.89797596038</v>
       </c>
       <c r="G60">
-        <v>-652.8727148264588</v>
+        <v>-561.1020240396174</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>49022.46437404107</v>
+        <v>49097.24724300011</v>
       </c>
       <c r="G61">
-        <v>-977.5356259589316</v>
+        <v>-902.7527569998929</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1812,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>10885.45916794148</v>
+        <v>10877.40148881835</v>
       </c>
       <c r="G62">
-        <v>885.4591679414843</v>
+        <v>877.4014888183465</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>10804.29344015837</v>
+        <v>10791.98880557828</v>
       </c>
       <c r="G63">
-        <v>804.2934401583661</v>
+        <v>791.9888055782776</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1858,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>10641.96198459213</v>
+        <v>10621.16343909814</v>
       </c>
       <c r="G64">
-        <v>641.9619845921316</v>
+        <v>621.1634390981399</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1881,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>10317.29907345966</v>
+        <v>10279.51270613786</v>
       </c>
       <c r="G65">
-        <v>317.2990734596642</v>
+        <v>279.5127061378626</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1904,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>15696.35789606614</v>
+        <v>15707.03016397332</v>
       </c>
       <c r="G66">
-        <v>696.3578960661362</v>
+        <v>707.0301639733225</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>15615.19216828302</v>
+        <v>15621.61748073325</v>
       </c>
       <c r="G67">
-        <v>615.192168283018</v>
+        <v>621.6174807332536</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1950,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>15452.86071271678</v>
+        <v>15450.79211425312</v>
       </c>
       <c r="G68">
-        <v>452.8607127167834</v>
+        <v>450.7921142531159</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>15128.19780158432</v>
+        <v>15109.14138129284</v>
       </c>
       <c r="G69">
-        <v>128.197801584316</v>
+        <v>109.1413812928386</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>20507.25662419079</v>
+        <v>20536.6588391283</v>
       </c>
       <c r="G70">
-        <v>507.256624190788</v>
+        <v>536.6588391282967</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>20426.09089640767</v>
+        <v>20451.24615588823</v>
       </c>
       <c r="G71">
-        <v>426.0908964076734</v>
+        <v>451.2461558882278</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2042,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>20263.75944084144</v>
+        <v>20280.42078940809</v>
       </c>
       <c r="G72">
-        <v>263.759440841437</v>
+        <v>280.4207894080901</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2065,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>19939.09652970897</v>
+        <v>19938.77005644781</v>
       </c>
       <c r="G73">
-        <v>-60.90347029103214</v>
+        <v>-61.22994355218543</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2088,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>30129.05408044009</v>
+        <v>30195.91618943825</v>
       </c>
       <c r="G74">
-        <v>129.0540804400916</v>
+        <v>195.9161894382487</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2111,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>30047.88835265698</v>
+        <v>30110.50350619818</v>
       </c>
       <c r="G75">
-        <v>47.88835265697708</v>
+        <v>110.5035061981798</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>29885.55689709074</v>
+        <v>29939.67813971804</v>
       </c>
       <c r="G76">
-        <v>-114.4431029092593</v>
+        <v>-60.32186028195792</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2157,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>29560.89398595827</v>
+        <v>29598.02740675777</v>
       </c>
       <c r="G77">
-        <v>-439.1060140417285</v>
+        <v>-401.9725932422334</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2180,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>49372.6489929387</v>
+        <v>49514.43089005815</v>
       </c>
       <c r="G78">
-        <v>-627.3510070612974</v>
+        <v>-485.5691099418473</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2203,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>49291.48326515558</v>
+        <v>49429.01820681809</v>
       </c>
       <c r="G79">
-        <v>-708.5167348444229</v>
+        <v>-570.9817931819125</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2226,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>49129.15180958936</v>
+        <v>49258.19284033795</v>
       </c>
       <c r="G80">
-        <v>-870.8481904106447</v>
+        <v>-741.8071596620503</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2249,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>48804.48889845688</v>
+        <v>48916.54210737767</v>
       </c>
       <c r="G81">
-        <v>-1195.511101543118</v>
+        <v>-1083.457892622326</v>
       </c>
     </row>
   </sheetData>
